--- a/src/assets/files/customer_xl_upload.xlsx
+++ b/src/assets/files/customer_xl_upload.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="7300"/>
+    <workbookView xWindow="75" yWindow="45" windowWidth="19095" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +77,8 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,12 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,22 +423,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -464,28 +454,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -502,5 +492,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/files/customer_xl_upload.xlsx
+++ b/src/assets/files/customer_xl_upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CUSTOMER NAME</t>
   </si>
@@ -52,13 +52,7 @@
     <t>GST NO</t>
   </si>
   <si>
-    <t>Kannan</t>
-  </si>
-  <si>
-    <t>REG001</t>
-  </si>
-  <si>
-    <t>Kathiravan</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -422,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,14 +474,8 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
